--- a/public/asset/employee_list.xlsx
+++ b/public/asset/employee_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231CFE73-250F-484D-A154-5C350C3FE9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6B636-6A19-BC4A-88F8-7D09D6953180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="540" windowWidth="28040" windowHeight="17440" xr2:uid="{1EA4F9EF-476C-3C49-B0E6-0B879ACE8AF7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>ibrahima</t>
   </si>
@@ -47,87 +47,6 @@
     <t>gusto</t>
   </si>
   <si>
-    <t>eifel</t>
-  </si>
-  <si>
-    <t>nom_employer</t>
-  </si>
-  <si>
-    <t>prenom_employer</t>
-  </si>
-  <si>
-    <t>sexe_employer</t>
-  </si>
-  <si>
-    <t>matricule</t>
-  </si>
-  <si>
-    <t>adresse_employer</t>
-  </si>
-  <si>
-    <t>email_employer</t>
-  </si>
-  <si>
-    <t>n_immatriculation</t>
-  </si>
-  <si>
-    <t>date_naissance_employer</t>
-  </si>
-  <si>
-    <t>lieu_naissance_employer</t>
-  </si>
-  <si>
-    <t>nationalite</t>
-  </si>
-  <si>
-    <t>prenom_pere</t>
-  </si>
-  <si>
-    <t>prenom_mere</t>
-  </si>
-  <si>
-    <t>nom_pere</t>
-  </si>
-  <si>
-    <t>nom_mere</t>
-  </si>
-  <si>
-    <t>situation_matrimoniale</t>
-  </si>
-  <si>
-    <t>profession</t>
-  </si>
-  <si>
-    <t>n_cin</t>
-  </si>
-  <si>
-    <t>date_del_cin</t>
-  </si>
-  <si>
-    <t>lieu_del_cin</t>
-  </si>
-  <si>
-    <t>n_acte_naissance</t>
-  </si>
-  <si>
-    <t>date_del_acte_naissance</t>
-  </si>
-  <si>
-    <t>lieu_del_acte_naissance</t>
-  </si>
-  <si>
-    <t>etat_employer</t>
-  </si>
-  <si>
-    <t>date_embauche</t>
-  </si>
-  <si>
-    <t>date_immatriculation</t>
-  </si>
-  <si>
-    <t>liberer</t>
-  </si>
-  <si>
     <t>lorem1@gmaol.com</t>
   </si>
   <si>
@@ -239,9 +158,6 @@
     <t>femme</t>
   </si>
   <si>
-    <t>aminata</t>
-  </si>
-  <si>
     <t>16-05-2022</t>
   </si>
   <si>
@@ -258,6 +174,96 @@
   </si>
   <si>
     <t>22-11-1987</t>
+  </si>
+  <si>
+    <t>Nom Employer</t>
+  </si>
+  <si>
+    <t>Prenom Employer</t>
+  </si>
+  <si>
+    <t>Sexe Employer</t>
+  </si>
+  <si>
+    <t>Matricule</t>
+  </si>
+  <si>
+    <t>Adresse Employer</t>
+  </si>
+  <si>
+    <t>Email Employer</t>
+  </si>
+  <si>
+    <t>N Immatriculation</t>
+  </si>
+  <si>
+    <t>Date Naissance Employer</t>
+  </si>
+  <si>
+    <t>Lieu Naissance Employer</t>
+  </si>
+  <si>
+    <t>Nationalite</t>
+  </si>
+  <si>
+    <t>Prenom Pere</t>
+  </si>
+  <si>
+    <t>Prenom Mere</t>
+  </si>
+  <si>
+    <t>Nom Pere</t>
+  </si>
+  <si>
+    <t>Nom Mere</t>
+  </si>
+  <si>
+    <t>Situation Matrimoniale</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>N Cin</t>
+  </si>
+  <si>
+    <t>Date Del Cin</t>
+  </si>
+  <si>
+    <t>Lieu Del Cin</t>
+  </si>
+  <si>
+    <t>N Acte Naissance</t>
+  </si>
+  <si>
+    <t>Date Del Acte Naissance</t>
+  </si>
+  <si>
+    <t>Lieu Del Acte Naissance</t>
+  </si>
+  <si>
+    <t>Etat Employer</t>
+  </si>
+  <si>
+    <t>Date Embauche</t>
+  </si>
+  <si>
+    <t>Date Immatriculation</t>
+  </si>
+  <si>
+    <t>Liberer</t>
+  </si>
+  <si>
+    <t>abdoul</t>
+  </si>
+  <si>
+    <t>loremAAA</t>
+  </si>
+  <si>
+    <t>loremBBB</t>
+  </si>
+  <si>
+    <t>loremCCC</t>
   </si>
 </sst>
 </file>
@@ -647,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4450775-1AD4-7346-8DB4-293CEDC840FB}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,82 +688,82 @@
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -768,73 +774,73 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2">
-        <v>1500000</v>
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
       </c>
       <c r="E2">
         <v>550000</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="R2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -842,79 +848,79 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3">
-        <v>800000</v>
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
       </c>
       <c r="E3">
         <v>550000</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="R3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="X3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="V3" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -925,76 +931,76 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4">
-        <v>5000000</v>
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
       </c>
       <c r="E4">
         <v>2500000</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="R4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="Z4">
         <v>1</v>

--- a/public/asset/employee_list.xlsx
+++ b/public/asset/employee_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6B636-6A19-BC4A-88F8-7D09D6953180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA1830-44B1-114C-BBB5-6FBC7384A057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="540" windowWidth="28040" windowHeight="17440" xr2:uid="{1EA4F9EF-476C-3C49-B0E6-0B879ACE8AF7}"/>
+    <workbookView xWindow="4480" yWindow="3680" windowWidth="28040" windowHeight="17440" xr2:uid="{1EA4F9EF-476C-3C49-B0E6-0B879ACE8AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>ibrahima</t>
   </si>
@@ -77,42 +77,9 @@
     <t>guineene</t>
   </si>
   <si>
-    <t>aliou</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>moussa</t>
-  </si>
-  <si>
-    <t>fanta</t>
-  </si>
-  <si>
-    <t>binta</t>
-  </si>
-  <si>
-    <t>fatim</t>
-  </si>
-  <si>
-    <t>barry</t>
-  </si>
-  <si>
-    <t>kaba</t>
-  </si>
-  <si>
     <t>lamah</t>
   </si>
   <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>keita</t>
-  </si>
-  <si>
-    <t>berete</t>
-  </si>
-  <si>
     <t>marie</t>
   </si>
   <si>
@@ -140,18 +107,6 @@
     <t>conakry</t>
   </si>
   <si>
-    <t>7878HYH</t>
-  </si>
-  <si>
-    <t>878HHH</t>
-  </si>
-  <si>
-    <t>987HH</t>
-  </si>
-  <si>
-    <t>actif</t>
-  </si>
-  <si>
     <t>homme</t>
   </si>
   <si>
@@ -206,18 +161,6 @@
     <t>Nationalite</t>
   </si>
   <si>
-    <t>Prenom Pere</t>
-  </si>
-  <si>
-    <t>Prenom Mere</t>
-  </si>
-  <si>
-    <t>Nom Pere</t>
-  </si>
-  <si>
-    <t>Nom Mere</t>
-  </si>
-  <si>
     <t>Situation Matrimoniale</t>
   </si>
   <si>
@@ -233,24 +176,9 @@
     <t>Lieu Del Cin</t>
   </si>
   <si>
-    <t>N Acte Naissance</t>
-  </si>
-  <si>
-    <t>Date Del Acte Naissance</t>
-  </si>
-  <si>
-    <t>Lieu Del Acte Naissance</t>
-  </si>
-  <si>
-    <t>Etat Employer</t>
-  </si>
-  <si>
     <t>Date Embauche</t>
   </si>
   <si>
-    <t>Date Immatriculation</t>
-  </si>
-  <si>
     <t>Liberer</t>
   </si>
   <si>
@@ -264,6 +192,90 @@
   </si>
   <si>
     <t>loremCCC</t>
+  </si>
+  <si>
+    <t>Pays Naissance Employer</t>
+  </si>
+  <si>
+    <t>guinee</t>
+  </si>
+  <si>
+    <t>maroc</t>
+  </si>
+  <si>
+    <t>Ville Employer</t>
+  </si>
+  <si>
+    <t>marocainne</t>
+  </si>
+  <si>
+    <t>rabat</t>
+  </si>
+  <si>
+    <t>coza</t>
+  </si>
+  <si>
+    <t>kipe</t>
+  </si>
+  <si>
+    <t>marackech</t>
+  </si>
+  <si>
+    <t>Quartier Employer</t>
+  </si>
+  <si>
+    <t>Commune Employer</t>
+  </si>
+  <si>
+    <t>ratoma</t>
+  </si>
+  <si>
+    <t>matoto</t>
+  </si>
+  <si>
+    <t>limah</t>
+  </si>
+  <si>
+    <t>Tel Employer</t>
+  </si>
+  <si>
+    <t>Emploi Occupe</t>
+  </si>
+  <si>
+    <t>05-06-1885</t>
+  </si>
+  <si>
+    <t>05-06-1886</t>
+  </si>
+  <si>
+    <t>medecine</t>
+  </si>
+  <si>
+    <t>musique</t>
+  </si>
+  <si>
+    <t>soudure</t>
+  </si>
+  <si>
+    <t>Salaire Brut</t>
+  </si>
+  <si>
+    <t>ratoma, lambanyi</t>
+  </si>
+  <si>
+    <t>kaloum, mosque faycal</t>
+  </si>
+  <si>
+    <t>rabat, farid</t>
+  </si>
+  <si>
+    <t>Type Employer</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>temporaire</t>
   </si>
 </sst>
 </file>
@@ -273,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +310,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -330,12 +348,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -651,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4450775-1AD4-7346-8DB4-293CEDC840FB}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,106 +686,98 @@
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="39.5" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="38.1640625" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
-    <col min="18" max="18" width="21.33203125" customWidth="1"/>
-    <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="28.6640625" customWidth="1"/>
-    <col min="21" max="21" width="39.1640625" customWidth="1"/>
-    <col min="22" max="22" width="39.33203125" customWidth="1"/>
-    <col min="23" max="23" width="23" customWidth="1"/>
-    <col min="24" max="24" width="22.83203125" customWidth="1"/>
-    <col min="25" max="25" width="35.83203125" customWidth="1"/>
-    <col min="26" max="26" width="16.83203125" customWidth="1"/>
+    <col min="9" max="10" width="39.1640625" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="13" width="39.1640625" customWidth="1"/>
+    <col min="14" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="38.1640625" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="23" width="28.6640625" customWidth="1"/>
+    <col min="24" max="24" width="39.1640625" customWidth="1"/>
+    <col min="25" max="25" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -774,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2">
-        <v>550000</v>
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -789,78 +800,75 @@
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2">
+        <v>611997823</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
+      <c r="V2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="5">
+        <v>500000</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2">
+        <v>71</v>
+      </c>
+      <c r="Y2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3">
-        <v>550000</v>
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>5</v>
@@ -869,78 +877,75 @@
         <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3">
+        <v>629017749</v>
+      </c>
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" t="s">
-        <v>38</v>
+      <c r="S3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1500000</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3">
+        <v>72</v>
+      </c>
+      <c r="Y3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4">
-        <v>2500000</v>
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -949,64 +954,62 @@
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4">
+        <v>669010384</v>
+      </c>
+      <c r="P4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
         <v>22</v>
       </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" t="s">
-        <v>38</v>
+      <c r="S4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="5">
+        <v>8000000</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4">
+        <v>73</v>
+      </c>
+      <c r="Y4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{69793F48-9D60-A440-9AEF-AAE8C3F5A4CB}"/>
     <hyperlink ref="F3:F4" r:id="rId2" display="lorem1@gmaol.com" xr:uid="{AD741C24-38BC-5A46-9542-59D62BE4778F}"/>
